--- a/Demo Files/2Selections - CORRECTcopy.xlsx
+++ b/Demo Files/2Selections - CORRECTcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borga/Developer/Projects/ERSMS/Demo Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/friberk/Documents/friBot/yeni/ERSMS/Demo Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6321A1-8BD4-7243-B785-21C6253CED22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29751C3B-6164-114B-90B9-ACF59D758B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
     <t>Kutay</t>
   </si>
   <si>
-    <t>TIRE</t>
+    <t>TİRE</t>
   </si>
 </sst>
 </file>
@@ -442,21 +442,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -875,9 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
